--- a/biology/Botanique/Adesmia_pinifolia/Adesmia_pinifolia.xlsx
+++ b/biology/Botanique/Adesmia_pinifolia/Adesmia_pinifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adesmia pinifolia, de noms vernaculaires Bois jaune ou Colimamil, est une espèce de plantes à fleurs de la famille des légumineuses, de la sous-famille des Faboideae et du genre Adesmia. Le bois jaune pousse entre 2 000 et 3 500 m au sud de la cordillère des Andes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'arbrisseau le plus haut de la cordillère, vivace, aux branches dressées, à l'écorce jaune. Les petites feuilles épineuses sont en forme d'aiguilles de 1 à 2,5 cm de long, groupées ; les fleurs jaunes sont minuscules ; les fruits sont très plumeux. 
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois jaune pousse parmi les broussailles d'altitude dans les Andes. 
 </t>
@@ -573,15 +589,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adesmia pinifolia a été décrit par Hook. &amp; Arn. et publié dans Botanical Miscellany 3: 192. 1833[1]. 
-Étymologie
-Adesmia: nom générique dérivé des mots grecs:
-a- (sans) et desme (paquet), en référence aux étamines libres[2].
-pinifolia : épithète latin qui signifie « à feuilles de pin » dû à la ressemblance avec les aiguilles de pin[3].
-Synonymie
-Patagonium pinifolium (Hook. &amp; Arn. ) Kuntze[4]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adesmia pinifolia a été décrit par Hook. &amp; Arn. et publié dans Botanical Miscellany 3: 192. 1833. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adesmia_pinifolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adesmia_pinifolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Adesmia: nom générique dérivé des mots grecs:
+a- (sans) et desme (paquet), en référence aux étamines libres.
+pinifolia : épithète latin qui signifie « à feuilles de pin » dû à la ressemblance avec les aiguilles de pin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adesmia_pinifolia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adesmia_pinifolia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Patagonium pinifolium (Hook. &amp; Arn. ) Kuntze</t>
         </is>
       </c>
     </row>
